--- a/Excel/Atualização/Materias/Materias-1.xlsx
+++ b/Excel/Atualização/Materias/Materias-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Matemática_atualizado</t>
   </si>
@@ -31,7 +31,13 @@
     <t xml:space="preserve">Português_atualizado</t>
   </si>
   <si>
-    <t xml:space="preserve">teste_atualizado</t>
+    <t xml:space="preserve">3300ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matéria_teste_atualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b8a56</t>
   </si>
 </sst>
 </file>
@@ -126,9 +132,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -223,16 +233,16 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>75148</v>
+        <v>95139</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
@@ -243,909 +253,915 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>75149</v>
+        <v>95138</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>75150</v>
+        <v>95148</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="1"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="1"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="1"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="1"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="1"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="1"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="1"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="1"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="1"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="1"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="1"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="1"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="1"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="1"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="1"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="1"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="1"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="1"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="1"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="1"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="1"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="1"/>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="1"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="1"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="1"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="1"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="1"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="1"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="1"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="1"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="1"/>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="1"/>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="1"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="1"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="1"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="1"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="1"/>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="1"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="1"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="1"/>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="1"/>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="1"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="1"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="1"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="1"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="1"/>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="1"/>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="1"/>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="1"/>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="1"/>
+      <c r="C120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="1"/>
+      <c r="C121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="1"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="1"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="1"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="1"/>
+      <c r="C125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="1"/>
+      <c r="C126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="1"/>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="1"/>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="1"/>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="1"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="1"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="1"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="1"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="1"/>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="1"/>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="1"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="1"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="1"/>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="1"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="1"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="1"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="1"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="1"/>
+      <c r="C143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="1"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="1"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="1"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="1"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="1"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="1"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="1"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="1"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="1"/>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="1"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="1"/>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="1"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="1"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="1"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="1"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="1"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="1"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="1"/>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="1"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="1"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="1"/>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="1"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="1"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="1"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="1"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="1"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="1"/>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="1"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="1"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="1"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="1"/>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="1"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="1"/>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="1"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="1"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="1"/>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="1"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="1"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="1"/>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="1"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="1"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="1"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="1"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="1"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="1"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="1"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="1"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="1"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="1"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="1"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="1"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="1"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="1"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="1"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="1"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="1"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="1"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="1"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="1"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="1"/>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="1"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="1"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="1"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="1"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="1"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="1"/>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="1"/>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="1"/>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="1"/>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="1"/>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="1"/>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="1"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="1"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="1"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="1"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="1"/>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="1"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="1"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="1"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="1"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="1"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="1"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="1"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="1"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="1"/>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="1"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="1"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="1"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="1"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="1"/>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="1"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="1"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="1"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="1"/>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="1"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="1"/>
+      <c r="C239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="1"/>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="1"/>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="1"/>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="1"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="1"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="1"/>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="1"/>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="1"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="1"/>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="1"/>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="1"/>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="1"/>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="1"/>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="1"/>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="1"/>
+      <c r="C254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="1"/>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="1"/>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="1"/>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="1"/>
+      <c r="C258" s="2"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="1"/>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="1"/>
+      <c r="C260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="1"/>
+      <c r="C261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="1"/>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="1"/>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="1"/>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="1"/>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="1"/>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="1"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="1"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="1"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="1"/>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="1"/>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="1"/>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="1"/>
+      <c r="C273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="1"/>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="1"/>
+      <c r="C275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="1"/>
+      <c r="C276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="1"/>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="1"/>
+      <c r="C278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="1"/>
+      <c r="C279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="1"/>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="1"/>
+      <c r="C281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="1"/>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="1"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="1"/>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="1"/>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="1"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="1"/>
+      <c r="C287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="1"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="1"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="1"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="1"/>
+      <c r="C291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="1"/>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="1"/>
+      <c r="C293" s="2"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="1"/>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="1"/>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="1"/>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="1"/>
+      <c r="C297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="1"/>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="1"/>
+      <c r="C299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="1"/>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
